--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-382524.2664664499</v>
+        <v>-385013.0054959662</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>280.8393146398237</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>80.53002958735277</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>87.64132622561581</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>201.7566544057203</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>106.1914650817266</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -829,13 +829,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -902,7 +902,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>187.9685985371967</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>74.47326816522828</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>148.3918711981292</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>95.5699721677327</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,7 +1148,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>194.5727296124811</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1184,7 +1184,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1193,10 +1193,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>84.2229096522907</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>45.66163753543552</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>135.6788621253847</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>103.1686991936213</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>71.22475183604968</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272868</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>120.1447214650588</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>11.79076481679262</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>102.767342670914</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,16 +2050,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>38.2187527515831</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>112.3085276221492</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>253.291869818643</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,16 +2482,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>20.92847288552895</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>108.5813113004299</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>81.74333192602201</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,10 +2719,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>216.8180354051597</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2843,10 +2843,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2953,10 +2953,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,16 +3007,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>43.34824157860942</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>218.4328070158261</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3080,7 +3080,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>18.4960568543865</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,16 +3424,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>110.0177171766861</v>
+        <v>54.26758323426815</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3442,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,13 +3664,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3679,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>248.6571042139344</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>36.2249434387023</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3901,7 +3901,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261735</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545294</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1920.300497975551</v>
+        <v>1930.094988518961</v>
       </c>
       <c r="C2" t="n">
-        <v>1920.300497975551</v>
+        <v>1561.13247157855</v>
       </c>
       <c r="D2" t="n">
-        <v>1562.0347993688</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="E2" t="n">
-        <v>1176.246546770556</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F2" t="n">
-        <v>765.2606419809483</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G2" t="n">
-        <v>350.1881918259447</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3244.262357379521</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2990.731880653358</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V2" t="n">
-        <v>2659.668993309787</v>
+        <v>2873.258084263016</v>
       </c>
       <c r="W2" t="n">
-        <v>2306.900338039673</v>
+        <v>2520.489428992902</v>
       </c>
       <c r="X2" t="n">
-        <v>2306.900338039673</v>
+        <v>2316.694828583083</v>
       </c>
       <c r="Y2" t="n">
-        <v>2306.900338039673</v>
+        <v>2316.694828583083</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686077</v>
+        <v>936.5735814686086</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>846.0716871064761</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080122</v>
+        <v>827.0643955080141</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986296</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
         <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2282.035690395594</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C4" t="n">
-        <v>2174.771584252436</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>2024.6549448401</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E4" t="n">
-        <v>1876.741851257707</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>1729.851903759797</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>1562.149067134516</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134516</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>3235.775364366698</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="U4" t="n">
-        <v>3235.775364366698</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V4" t="n">
-        <v>2981.090876160812</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W4" t="n">
-        <v>2691.673706123851</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X4" t="n">
-        <v>2463.684155225834</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y4" t="n">
-        <v>2463.684155225834</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4562,13 +4562,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2535.034709923659</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2345.167438673965</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X5" t="n">
-        <v>2345.167438673965</v>
+        <v>2349.518518051532</v>
       </c>
       <c r="Y5" t="n">
-        <v>2345.167438673965</v>
+        <v>1959.379186075721</v>
       </c>
     </row>
     <row r="6">
@@ -4641,31 +4641,31 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>457.9680739783734</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="C7" t="n">
-        <v>457.9680739783734</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D7" t="n">
-        <v>457.9680739783734</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959803</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U7" t="n">
-        <v>1326.594608541191</v>
+        <v>1555.63715367001</v>
       </c>
       <c r="V7" t="n">
-        <v>1071.910120335304</v>
+        <v>1300.952665464123</v>
       </c>
       <c r="W7" t="n">
-        <v>782.492950298343</v>
+        <v>1011.535495427162</v>
       </c>
       <c r="X7" t="n">
-        <v>554.5033994003256</v>
+        <v>783.5459445291447</v>
       </c>
       <c r="Y7" t="n">
-        <v>457.9680739783734</v>
+        <v>562.7533653856145</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1986.901740067214</v>
+        <v>2244.12194900241</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1875.159432061998</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1516.893733455248</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1131.105480857004</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>720.1195760673961</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>305.0471259123926</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912092</v>
@@ -4820,10 +4820,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="X8" t="n">
-        <v>1986.901740067214</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="Y8" t="n">
-        <v>1986.901740067214</v>
+        <v>2630.721789066532</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,49 +4884,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>797.4834000772721</v>
+        <v>593.9942835760974</v>
       </c>
       <c r="C10" t="n">
-        <v>628.5472171493652</v>
+        <v>593.9942835760974</v>
       </c>
       <c r="D10" t="n">
-        <v>478.4305777370295</v>
+        <v>593.9942835760974</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1615.697475415547</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V10" t="n">
-        <v>1361.01298720966</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="W10" t="n">
-        <v>1071.595817172699</v>
+        <v>1224.424878447885</v>
       </c>
       <c r="X10" t="n">
-        <v>843.6062662746817</v>
+        <v>996.4353275498672</v>
       </c>
       <c r="Y10" t="n">
-        <v>843.6062662746817</v>
+        <v>775.6427484063371</v>
       </c>
     </row>
     <row r="11">
@@ -5021,67 +5021,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400733</v>
+        <v>1023.721406539404</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121664</v>
+        <v>854.7852236114967</v>
       </c>
       <c r="D13" t="n">
-        <v>240.7066105458823</v>
+        <v>704.6685841991609</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458823</v>
+        <v>556.7554906167678</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854708</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648821</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.28419561186</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138431</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.502065570313</v>
+        <v>1205.369871369643</v>
       </c>
     </row>
     <row r="14">
@@ -5270,55 +5270,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>738.7889117913853</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>1052.829365488567</v>
       </c>
       <c r="C16" t="n">
-        <v>847.644273983533</v>
+        <v>883.8931825606599</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>733.7765431483241</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>585.863449565931</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>438.9735020680206</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2252.19838578386</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1963.123159128057</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="V16" t="n">
-        <v>1708.43867092217</v>
+        <v>1972.677130397314</v>
       </c>
       <c r="W16" t="n">
-        <v>1419.02150088521</v>
+        <v>1683.259960360354</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>1455.270409462336</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>1234.477830318806</v>
       </c>
     </row>
     <row r="17">
@@ -5498,28 +5498,28 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5528,13 +5528,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327652</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048583</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D19" t="n">
-        <v>491.0125592675714</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851783</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.2863919474</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741513</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806535</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630049</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,16 +5762,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>801.6605733532801</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C22" t="n">
-        <v>632.7243904253733</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253733</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038332</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797733</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588918</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y22" t="n">
-        <v>915.1035305473703</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="23">
@@ -5978,37 +5978,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969303</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876693</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597624</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>261.8464821474266</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>261.8464821474266</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>114.9565346495163</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>114.9565346495163</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="26">
@@ -6212,34 +6212,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.8641191832228</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C28" t="n">
-        <v>634.9279362553159</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>1978.054428916699</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.979202260897</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>1434.29471405501</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W28" t="n">
-        <v>1434.29471405501</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X28" t="n">
-        <v>1206.305163156993</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y28" t="n">
-        <v>985.5125840134625</v>
+        <v>1099.149479058937</v>
       </c>
     </row>
     <row r="29">
@@ -6458,7 +6458,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6467,13 +6467,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>724.7519863413023</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C31" t="n">
-        <v>555.8158034133954</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1644.59975125005</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1355.182581213089</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1127.193030315072</v>
+        <v>990.6907003535711</v>
       </c>
       <c r="Y31" t="n">
-        <v>906.400451171542</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="32">
@@ -6689,28 +6689,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2245.425363523663</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1956.350136867861</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1701.665648661974</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1412.248478625014</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1184.258927726996</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>963.4663485834661</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6953,31 +6953,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>984.5467179762944</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>1166.195182806534</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7190,31 +7190,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>801.6605733532801</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C40" t="n">
-        <v>632.7243904253733</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253733</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603202</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U40" t="n">
-        <v>1976.192826467915</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V40" t="n">
-        <v>1721.508338262028</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W40" t="n">
-        <v>1432.091168225067</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X40" t="n">
-        <v>1204.10161732705</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y40" t="n">
-        <v>983.3090381835199</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="41">
@@ -7397,46 +7397,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319332</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656826</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
         <v>656.9646031150023</v>
@@ -7555,10 +7555,10 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7643,22 +7643,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150029</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.581456494266</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.221455958012</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345482</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7810,7 +7810,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,25 +7828,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>13.76844974749682</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,22 +22595,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>240.1109322445191</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22756,7 +22756,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>147.8785773062519</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>45.44677382459108</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>74.19629618688157</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-2.216875867721144e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>45.37941682721006</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016461</v>
       </c>
       <c r="T16" t="n">
-        <v>205.6146855104956</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>45.84813034729834</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>213.9188905722449</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>67.52345255978808</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>32.89260457060112</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>119.3662399606949</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>110.0033420516649</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>98.08864825591529</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,10 +24607,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0.587414922128545</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24841,10 +24841,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,16 +24895,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>208.7894017452186</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>7.276848373211067</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>198.9093934729018</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25312,16 +25312,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>57.22910392194177</v>
+        <v>112.9792378643597</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25552,13 +25552,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -25603,13 +25603,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>37.52737017530976</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>250.2980548978887</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1140984.23093623</v>
+        <v>1140984.230936231</v>
       </c>
     </row>
     <row r="6">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1140984.23093623</v>
+        <v>1140984.230936231</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1140984.23093623</v>
+        <v>1140984.230936231</v>
       </c>
     </row>
     <row r="14">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>251542.9259350415</v>
+        <v>251542.9259350417</v>
       </c>
       <c r="C2" t="n">
         <v>287364.6194524993</v>
@@ -26320,40 +26320,40 @@
         <v>287364.6194524993</v>
       </c>
       <c r="E2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="F2" t="n">
         <v>282501.3098915021</v>
       </c>
       <c r="G2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915022</v>
       </c>
       <c r="H2" t="n">
         <v>282501.3098915021</v>
       </c>
       <c r="I2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="J2" t="n">
+        <v>282501.3098915022</v>
+      </c>
+      <c r="K2" t="n">
+        <v>282501.3098915022</v>
+      </c>
+      <c r="L2" t="n">
         <v>282501.3098915021</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>282501.3098915021</v>
       </c>
-      <c r="L2" t="n">
-        <v>282501.3098915023</v>
-      </c>
-      <c r="M2" t="n">
-        <v>282501.3098915023</v>
-      </c>
       <c r="N2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="O2" t="n">
-        <v>287364.6194524994</v>
+        <v>287364.6194524992</v>
       </c>
       <c r="P2" t="n">
-        <v>287364.6194524994</v>
+        <v>287364.6194524992</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551209</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32547.31598570287</v>
+        <v>32547.31598570303</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815707</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815711</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26439,25 +26439,25 @@
         <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
+        <v>11776.97621680583</v>
+      </c>
+      <c r="K4" t="n">
+        <v>11776.97621680583</v>
+      </c>
+      <c r="L4" t="n">
+        <v>11776.9762168058</v>
+      </c>
+      <c r="M4" t="n">
+        <v>11776.97621680583</v>
+      </c>
+      <c r="N4" t="n">
         <v>11776.97621680582</v>
       </c>
-      <c r="K4" t="n">
-        <v>11776.9762168058</v>
-      </c>
-      <c r="L4" t="n">
-        <v>11776.97621680582</v>
-      </c>
-      <c r="M4" t="n">
-        <v>11776.9762168058</v>
-      </c>
-      <c r="N4" t="n">
-        <v>11776.9762168058</v>
-      </c>
       <c r="O4" t="n">
-        <v>19767.83547989923</v>
+        <v>19767.83547989929</v>
       </c>
       <c r="P4" t="n">
-        <v>19767.83547989929</v>
+        <v>19767.8354798993</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1217683.076339647</v>
+        <v>-1217938.945579058</v>
       </c>
       <c r="C6" t="n">
-        <v>88466.66790294865</v>
+        <v>88466.66790294886</v>
       </c>
       <c r="D6" t="n">
-        <v>88466.667902949</v>
+        <v>88466.66790294892</v>
       </c>
       <c r="E6" t="n">
-        <v>-155810.6579565661</v>
+        <v>-155845.3958820016</v>
       </c>
       <c r="F6" t="n">
-        <v>169601.8038507892</v>
+        <v>169567.0659253535</v>
       </c>
       <c r="G6" t="n">
-        <v>169601.8038507893</v>
+        <v>169567.0659253536</v>
       </c>
       <c r="H6" t="n">
-        <v>169601.8038507892</v>
+        <v>169567.0659253535</v>
       </c>
       <c r="I6" t="n">
-        <v>169601.8038507894</v>
+        <v>169567.0659253535</v>
       </c>
       <c r="J6" t="n">
-        <v>-47929.39854648826</v>
+        <v>-47964.13647192396</v>
       </c>
       <c r="K6" t="n">
-        <v>169601.8038507894</v>
+        <v>169567.0659253536</v>
       </c>
       <c r="L6" t="n">
-        <v>169601.8038507893</v>
+        <v>169567.0659253535</v>
       </c>
       <c r="M6" t="n">
-        <v>84546.77591527731</v>
+        <v>84512.03798984166</v>
       </c>
       <c r="N6" t="n">
-        <v>169601.8038507893</v>
+        <v>169567.0659253535</v>
       </c>
       <c r="O6" t="n">
-        <v>145004.9501250529</v>
+        <v>145004.9501250527</v>
       </c>
       <c r="P6" t="n">
-        <v>164432.6681186847</v>
+        <v>164432.6681186845</v>
       </c>
     </row>
   </sheetData>
@@ -26725,7 +26725,7 @@
         <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26820,13 +26820,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26960,13 +26960,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26990,7 +26990,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>123.3879405522674</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>167.9744462727487</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>61.05535601690123</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27549,13 +27549,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27622,7 +27622,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>161.2723701802163</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>295.2578325132408</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,19 +27780,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27828,7 +27828,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>137.8199670074837</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>123.0146811843621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>100.0350347748394</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>285.5081910261783</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>134.1703426465018</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>10.75510052118452</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,7 +28068,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28299,7 +28299,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28533,7 +28533,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29563,10 +29563,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29800,7 +29800,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319848</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>742.9354859824765</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,31 +32540,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>573.8098963904297</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33269,22 +33269,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,34 +34199,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875403</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>611.5937738991432</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,16 +36203,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096338</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,31 +36431,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>431.6758624684114</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,28 +36668,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36917,22 +36917,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,28 +37853,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
         <v>397.5465471980852</v>
